--- a/我的创作/炒股/久吾高科.xlsx
+++ b/我的创作/炒股/久吾高科.xlsx
@@ -7,12 +7,9 @@
     <workbookView windowWidth="27240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="日志" sheetId="1" r:id="rId1"/>
-    <sheet name="状态" sheetId="2" r:id="rId2"/>
+    <sheet name="每日动态" sheetId="1" r:id="rId1"/>
+    <sheet name="运行指标" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -64,21 +61,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,41 +122,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +144,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -156,52 +199,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,91 +219,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,85 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,17 +410,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,17 +431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,19 +443,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,153 +478,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,75 +732,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="买入筛选条件"/>
-      <sheetName val="久吾高科运行指标"/>
-      <sheetName val="久吾高科日志"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2">
-            <v>44517</v>
-          </cell>
-          <cell r="B2">
-            <v>38.97</v>
-          </cell>
-          <cell r="C2">
-            <v>38.25</v>
-          </cell>
-          <cell r="D2">
-            <v>40.84</v>
-          </cell>
-          <cell r="E2">
-            <v>12.45</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>44518</v>
-          </cell>
-          <cell r="B3">
-            <v>39.65</v>
-          </cell>
-          <cell r="C3">
-            <v>40.05</v>
-          </cell>
-          <cell r="D3">
-            <v>46.03</v>
-          </cell>
-          <cell r="E3">
-            <v>23.64</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44519</v>
-          </cell>
-          <cell r="B4">
-            <v>40.12</v>
-          </cell>
-          <cell r="C4">
-            <v>44.4</v>
-          </cell>
-          <cell r="D4">
-            <v>44.68</v>
-          </cell>
-          <cell r="E4">
-            <v>17.52</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,15 +995,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.5535714285714" customWidth="1"/>
+    <col min="2" max="2" width="13.0892857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.5357142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:5">
+    <row r="1" ht="18" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,13 +1124,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.7946428571429" customWidth="1"/>
     <col min="2" max="2" width="22.7678571428571" customWidth="1"/>
@@ -1227,15 +1157,15 @@
         <v>44518</v>
       </c>
       <c r="B2" s="3">
-        <f>VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A2:E10,4,FALSE)-VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A2:E10,2,FALSE)</f>
+        <f>VLOOKUP(A2,每日动态!$A$2:E4,4,FALSE)-VLOOKUP(A2,每日动态!$A$2:E4,2,FALSE)</f>
         <v>6.38</v>
       </c>
       <c r="C2" s="4">
-        <f>(VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A2:E9,4,FALSE)-VLOOKUP([1]久吾高科日志!A2,[1]久吾高科日志!A2:E9,4,FALSE))/VLOOKUP([1]久吾高科日志!A2,[1]久吾高科日志!A2:E9,4,FALSE)</f>
+        <f>(VLOOKUP(每日动态!A3,每日动态!A2:E100,4,FALSE)-VLOOKUP(每日动态!A2,每日动态!A2:E100,4,FALSE))/VLOOKUP(每日动态!A2,每日动态!A2:E100,4,FALSE)</f>
         <v>0.127081292850147</v>
       </c>
       <c r="D2" s="4">
-        <f>(VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A2:E10,5,FALSE)-VLOOKUP([1]久吾高科日志!A2,[1]久吾高科日志!A2:E10,5,FALSE))/VLOOKUP([1]久吾高科日志!A2,[1]久吾高科日志!A2:E10,5,FALSE)</f>
+        <f>(VLOOKUP(每日动态!A3,每日动态!A2:E100,5,FALSE)-VLOOKUP(每日动态!A2,每日动态!A2:E100,5,FALSE))/VLOOKUP(每日动态!A2,每日动态!A2:E100,5,FALSE)</f>
         <v>0.898795180722892</v>
       </c>
     </row>
@@ -1244,16 +1174,196 @@
         <v>44519</v>
       </c>
       <c r="B3" s="3">
-        <f>VLOOKUP([1]久吾高科日志!A4,[1]久吾高科日志!A3:E10,4,FALSE)-VLOOKUP([1]久吾高科日志!A4,[1]久吾高科日志!A3:E10,2,FALSE)</f>
+        <f>VLOOKUP(A3,每日动态!$A$2:E5,4,FALSE)-VLOOKUP(A3,每日动态!$A$2:E5,2,FALSE)</f>
         <v>4.56</v>
       </c>
       <c r="C3" s="4">
-        <f>(VLOOKUP([1]久吾高科日志!A4,[1]久吾高科日志!A3:E10,4,FALSE)-VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A3:E10,4,FALSE))/VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A3:E10,4,FALSE)</f>
+        <f>(VLOOKUP(每日动态!A4,每日动态!A3:E101,4,FALSE)-VLOOKUP(每日动态!A3,每日动态!A3:E101,4,FALSE))/VLOOKUP(每日动态!A3,每日动态!A3:E101,4,FALSE)</f>
         <v>-0.0293286986747773</v>
       </c>
       <c r="D3" s="4">
-        <f>(VLOOKUP([1]久吾高科日志!A4,[1]久吾高科日志!A3:E10,5,FALSE)-VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A3:E10,5,FALSE))/VLOOKUP([1]久吾高科日志!A3,[1]久吾高科日志!A3:E10,5,FALSE)</f>
+        <f>(VLOOKUP(每日动态!A4,每日动态!A3:E101,5,FALSE)-VLOOKUP(每日动态!A3,每日动态!A3:E101,5,FALSE))/VLOOKUP(每日动态!A3,每日动态!A3:E101,5,FALSE)</f>
         <v>-0.258883248730965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>44521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>44526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>44544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>44555</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/炒股/久吾高科.xlsx
+++ b/我的创作/炒股/久吾高科.xlsx
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>

--- a/我的创作/炒股/久吾高科.xlsx
+++ b/我的创作/炒股/久吾高科.xlsx
@@ -32,7 +32,7 @@
     <t>成交量(w)</t>
   </si>
   <si>
-    <t>20日均线与开盘价关系</t>
+    <t>20日均线与收盘价关系</t>
   </si>
   <si>
     <t>上涨/下跌幅度</t>
@@ -46,8 +46,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -61,7 +61,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,7 +104,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,7 +174,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,14 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -120,89 +203,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,31 +219,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,49 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,91 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,8 +410,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,11 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,8 +449,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,21 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -504,153 +495,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -658,19 +658,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,7 +725,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -992,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.5535714285714" customWidth="1"/>
     <col min="2" max="2" width="13.0892857142857" customWidth="1"/>
@@ -1074,46 +1074,238 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2">
+        <v>44520</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
+      <c r="A6" s="2">
+        <v>44521</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
+      <c r="A7" s="2">
+        <v>44522</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
+      <c r="A8" s="2">
+        <v>44523</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
+      <c r="A9" s="2">
+        <v>44524</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2">
+        <v>44525</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>44526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>44544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2">
+        <v>44561</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1127,10 +1319,10 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.7946428571429" customWidth="1"/>
     <col min="2" max="2" width="22.7678571428571" customWidth="1"/>
